--- a/biology/Botanique/José_Correia_da_Serra/José_Correia_da_Serra.xlsx
+++ b/biology/Botanique/José_Correia_da_Serra/José_Correia_da_Serra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Correia_da_Serra</t>
+          <t>José_Correia_da_Serra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Francisco Correia da Serra, né le 6 juin 1750 à Serpa (Alentejo), mort le 11 septembre 1823 au Portugal, était un abbé Portugais
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Correia_da_Serra</t>
+          <t>José_Correia_da_Serra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait ses études à Rome où il entra dans les ordres. En 1777, il rentra à Lisbonne où il fut l'un des fondateurs de l'Académie Royale des Sciences de Lisbonne en 1779. Ses écrits le mirent en conflit avec les membres de la hiérarchie religieuse et politique du Portugal.
 En 1786, il s'enfuit en France, et y resta jusqu'à la mort du roi-consort Pierre III. Il revint dans sa patrie mais des difficultés politiques le forcèrent à quitter de nouveau le pays. Il se rendit en Angleterre, où il trouva un protecteur dans Sir Joseph Banks qui était président de la Royal Society. Avec son soutien, il fut facilement élu membre de la Royal Society.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Correia_da_Serra</t>
+          <t>José_Correia_da_Serra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Colecção de livros inéditos da história Portuguesa, 4 vols., 1790-1816.
-Articles[1]:
+Articles:
 « On the fructification of the submersed Algae,»  Philosophical Transactions, 1799, pp. 494–505.
 « On a submarine forest on the coast of England,»  Philosophical Transactions, 1799, pp. 145–155.
 « On two genera of plants belonging to the natural family of the Aurantia,»  Transactions of the Linnean Society, Vol. 5, pp. 218–226.
